--- a/Proj1.xlsx
+++ b/Proj1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="100" yWindow="460" windowWidth="22840" windowHeight="12340" tabRatio="500"/>
+    <workbookView xWindow="100" yWindow="460" windowWidth="26200" windowHeight="15780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="17">
   <si>
     <t>S1</t>
   </si>
@@ -48,6 +48,36 @@
   </si>
   <si>
     <t>S7</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>S8</t>
+  </si>
+  <si>
+    <t>S9</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>S11</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>S13</t>
+  </si>
+  <si>
+    <t>S14</t>
   </si>
 </sst>
 </file>
@@ -84,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -102,6 +132,21 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -129,11 +174,104 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -143,13 +281,55 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -429,459 +609,1588 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.83203125" style="1" customWidth="1"/>
     <col min="2" max="7" width="5.83203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="4"/>
+    <col min="8" max="8" width="5.83203125" style="4" customWidth="1"/>
     <col min="9" max="9" width="5.83203125" style="1" customWidth="1"/>
     <col min="10" max="16" width="5.83203125" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="4"/>
+    <col min="17" max="26" width="5.83203125" style="4" customWidth="1"/>
+    <col min="27" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12">
         <v>10</v>
       </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3">
+      <c r="D2" s="12">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12">
+        <v>0</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="12">
+        <v>0</v>
+      </c>
+      <c r="K2" s="12">
         <v>15</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="12">
         <v>14</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="12">
         <v>9</v>
       </c>
-      <c r="N2" s="3">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3">
+      <c r="N2" s="12">
+        <v>0</v>
+      </c>
+      <c r="O2" s="12">
+        <v>0</v>
+      </c>
+      <c r="P2" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="B3" s="12">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12">
         <v>8</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="12">
         <v>13</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="12">
         <v>24</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="13">
         <v>51</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0</v>
+      </c>
+      <c r="L3" s="12">
+        <v>0</v>
+      </c>
+      <c r="M3" s="12">
+        <v>0</v>
+      </c>
+      <c r="N3" s="12">
+        <v>0</v>
+      </c>
+      <c r="O3" s="12">
         <v>20</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="13">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="B4" s="12">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12">
         <v>14</v>
       </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
+      <c r="J4" s="12">
+        <v>0</v>
+      </c>
+      <c r="K4" s="12">
         <v>5</v>
       </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3">
+      <c r="L4" s="12">
+        <v>0</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0</v>
+      </c>
+      <c r="N4" s="12">
         <v>17</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="12">
         <v>30</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="B5" s="12">
+        <v>0</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
         <v>9</v>
       </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
+      <c r="J5" s="12">
+        <v>0</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0</v>
+      </c>
+      <c r="M5" s="12">
+        <v>0</v>
+      </c>
+      <c r="N5" s="12">
         <v>23</v>
       </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
+      <c r="O5" s="12">
+        <v>0</v>
+      </c>
+      <c r="P5" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="B6" s="12">
+        <v>0</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
         <v>17</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3">
+      <c r="J6" s="12">
+        <v>0</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0</v>
+      </c>
+      <c r="M6" s="12">
+        <v>0</v>
+      </c>
+      <c r="N6" s="12">
+        <v>0</v>
+      </c>
+      <c r="O6" s="12">
         <v>3</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="13">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="B7" s="12">
+        <v>0</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
+      <c r="J7" s="12">
+        <v>0</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0</v>
+      </c>
+      <c r="M7" s="12">
+        <v>0</v>
+      </c>
+      <c r="N7" s="12">
+        <v>0</v>
+      </c>
+      <c r="O7" s="12">
+        <v>0</v>
+      </c>
+      <c r="P7" s="13">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="I8" s="1" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+      <c r="I8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
+      <c r="J8" s="12">
+        <v>0</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0</v>
+      </c>
+      <c r="L8" s="12">
+        <v>0</v>
+      </c>
+      <c r="M8" s="12">
+        <v>0</v>
+      </c>
+      <c r="N8" s="12">
+        <v>0</v>
+      </c>
+      <c r="O8" s="12">
+        <v>0</v>
+      </c>
+      <c r="P8" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="13"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="5">
         <f>10+51</f>
         <v>61</v>
       </c>
+      <c r="I10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="14"/>
+      <c r="N10" s="5">
+        <f>15+20+16</f>
+        <v>51</v>
+      </c>
+      <c r="O10" s="12"/>
+      <c r="P10" s="13"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="6">
         <f>10+24+17</f>
         <v>51</v>
       </c>
+      <c r="I11" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="6">
+        <f>15+37</f>
+        <v>52</v>
+      </c>
+      <c r="O11" s="12"/>
+      <c r="P11" s="13"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="6">
+      <c r="F12" s="20"/>
+      <c r="G12" s="21">
         <f>10+13+9+17</f>
         <v>49</v>
       </c>
+      <c r="I12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="6">
+        <f>14+5+20+16</f>
+        <v>55</v>
+      </c>
+      <c r="O12" s="12"/>
+      <c r="P12" s="13"/>
     </row>
     <row r="13" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="A13" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="16" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="7">
         <f>10+8+14+9+17</f>
         <v>58</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="I13" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="14"/>
+      <c r="N13" s="6">
+        <f>14+5+37</f>
+        <v>56</v>
+      </c>
+      <c r="O13" s="12"/>
+      <c r="P13" s="13"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="21">
+        <f>14+17+3+16</f>
+        <v>50</v>
+      </c>
+      <c r="O14" s="12"/>
+      <c r="P14" s="13"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I15" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="14"/>
+      <c r="N15" s="6">
+        <f>14+17+20</f>
+        <v>51</v>
+      </c>
+      <c r="O15" s="12"/>
+      <c r="P15" s="13"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="14"/>
+      <c r="N16" s="6">
+        <f>14+30+16</f>
+        <v>60</v>
+      </c>
+      <c r="O16" s="12"/>
+      <c r="P16" s="13"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I17" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" s="6">
+        <f>9+23+3+16</f>
+        <v>51</v>
+      </c>
+      <c r="O17" s="12"/>
+      <c r="P17" s="13"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I18" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="16"/>
+      <c r="N18" s="7">
+        <f>9+23+20</f>
+        <v>52</v>
+      </c>
+      <c r="O18" s="17"/>
+      <c r="P18" s="18"/>
+    </row>
+    <row r="20" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="12">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0</v>
+      </c>
+      <c r="K21" s="12">
+        <v>0</v>
+      </c>
+      <c r="L21" s="12">
+        <v>0</v>
+      </c>
+      <c r="M21" s="12">
+        <v>0</v>
+      </c>
+      <c r="N21" s="12">
+        <v>0</v>
+      </c>
+      <c r="O21" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="12">
+        <v>0</v>
+      </c>
+      <c r="C22" s="12">
+        <v>0</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0</v>
+      </c>
+      <c r="F22" s="12">
+        <v>0</v>
+      </c>
+      <c r="G22" s="12">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>10</v>
+      </c>
+      <c r="I22" s="12">
+        <v>0</v>
+      </c>
+      <c r="J22" s="12">
+        <v>0</v>
+      </c>
+      <c r="K22" s="12">
+        <v>0</v>
+      </c>
+      <c r="L22" s="12">
+        <v>0</v>
+      </c>
+      <c r="M22" s="12">
+        <v>0</v>
+      </c>
+      <c r="N22" s="12">
+        <v>0</v>
+      </c>
+      <c r="O22" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="12">
+        <v>0</v>
+      </c>
+      <c r="C23" s="12">
+        <v>0</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0</v>
+      </c>
+      <c r="F23" s="12">
+        <v>0</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>12</v>
+      </c>
+      <c r="I23" s="1">
+        <v>5</v>
+      </c>
+      <c r="J23" s="12">
+        <v>0</v>
+      </c>
+      <c r="K23" s="12">
+        <v>0</v>
+      </c>
+      <c r="L23" s="12">
+        <v>0</v>
+      </c>
+      <c r="M23" s="12">
+        <v>0</v>
+      </c>
+      <c r="N23" s="12">
+        <v>0</v>
+      </c>
+      <c r="O23" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="12">
+        <v>0</v>
+      </c>
+      <c r="C24" s="12">
+        <v>0</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0</v>
+      </c>
+      <c r="F24" s="12">
+        <v>0</v>
+      </c>
+      <c r="G24" s="12">
+        <v>0</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>8</v>
+      </c>
+      <c r="J24" s="3">
+        <v>14</v>
+      </c>
+      <c r="K24" s="12">
+        <v>0</v>
+      </c>
+      <c r="L24" s="12">
+        <v>0</v>
+      </c>
+      <c r="M24" s="12">
+        <v>0</v>
+      </c>
+      <c r="N24" s="12">
+        <v>0</v>
+      </c>
+      <c r="O24" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="12">
+        <v>0</v>
+      </c>
+      <c r="C25" s="12">
+        <v>0</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0</v>
+      </c>
+      <c r="E25" s="12">
+        <v>0</v>
+      </c>
+      <c r="F25" s="12">
+        <v>0</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0</v>
+      </c>
+      <c r="I25" s="12">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>7</v>
+      </c>
+      <c r="K25" s="3">
+        <v>11</v>
+      </c>
+      <c r="L25" s="12">
+        <v>0</v>
+      </c>
+      <c r="M25" s="12">
+        <v>0</v>
+      </c>
+      <c r="N25" s="12">
+        <v>0</v>
+      </c>
+      <c r="O25" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="12">
+        <v>0</v>
+      </c>
+      <c r="C26" s="12">
+        <v>0</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0</v>
+      </c>
+      <c r="F26" s="12">
+        <v>0</v>
+      </c>
+      <c r="G26" s="12">
+        <v>0</v>
+      </c>
+      <c r="H26" s="12">
+        <v>0</v>
+      </c>
+      <c r="I26" s="12">
+        <v>0</v>
+      </c>
+      <c r="J26" s="12">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>2</v>
+      </c>
+      <c r="L26" s="12">
+        <v>0</v>
+      </c>
+      <c r="M26" s="12">
+        <v>0</v>
+      </c>
+      <c r="N26" s="12">
+        <v>0</v>
+      </c>
+      <c r="O26" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="12">
+        <v>0</v>
+      </c>
+      <c r="C27" s="12">
+        <v>0</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0</v>
+      </c>
+      <c r="F27" s="12">
+        <v>0</v>
+      </c>
+      <c r="G27" s="12">
+        <v>0</v>
+      </c>
+      <c r="H27" s="12">
+        <v>0</v>
+      </c>
+      <c r="I27" s="12">
+        <v>0</v>
+      </c>
+      <c r="J27" s="12">
+        <v>0</v>
+      </c>
+      <c r="K27" s="12">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>3</v>
+      </c>
+      <c r="M27" s="12">
+        <v>0</v>
+      </c>
+      <c r="N27" s="12">
+        <v>0</v>
+      </c>
+      <c r="O27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="12">
+        <v>0</v>
+      </c>
+      <c r="C28" s="12">
+        <v>0</v>
+      </c>
+      <c r="D28" s="12">
+        <v>0</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0</v>
+      </c>
+      <c r="F28" s="12">
+        <v>0</v>
+      </c>
+      <c r="G28" s="12">
+        <v>0</v>
+      </c>
+      <c r="H28" s="12">
+        <v>0</v>
+      </c>
+      <c r="I28" s="12">
+        <v>0</v>
+      </c>
+      <c r="J28" s="12">
+        <v>0</v>
+      </c>
+      <c r="K28" s="12">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>15</v>
+      </c>
+      <c r="M28" s="3">
+        <v>6</v>
+      </c>
+      <c r="N28" s="12">
+        <v>0</v>
+      </c>
+      <c r="O28" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="12">
+        <v>0</v>
+      </c>
+      <c r="C29" s="12">
+        <v>0</v>
+      </c>
+      <c r="D29" s="12">
+        <v>0</v>
+      </c>
+      <c r="E29" s="12">
+        <v>0</v>
+      </c>
+      <c r="F29" s="12">
+        <v>0</v>
+      </c>
+      <c r="G29" s="12">
+        <v>0</v>
+      </c>
+      <c r="H29" s="12">
+        <v>0</v>
+      </c>
+      <c r="I29" s="12">
+        <v>0</v>
+      </c>
+      <c r="J29" s="12">
+        <v>0</v>
+      </c>
+      <c r="K29" s="12">
+        <v>0</v>
+      </c>
+      <c r="L29" s="12">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>20</v>
+      </c>
+      <c r="N29" s="3">
+        <v>13</v>
+      </c>
+      <c r="O29" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="12">
+        <v>0</v>
+      </c>
+      <c r="C30" s="12">
+        <v>0</v>
+      </c>
+      <c r="D30" s="12">
+        <v>0</v>
+      </c>
+      <c r="E30" s="12">
+        <v>0</v>
+      </c>
+      <c r="F30" s="12">
+        <v>0</v>
+      </c>
+      <c r="G30" s="12">
+        <v>0</v>
+      </c>
+      <c r="H30" s="12">
+        <v>0</v>
+      </c>
+      <c r="I30" s="12">
+        <v>0</v>
+      </c>
+      <c r="J30" s="12">
+        <v>0</v>
+      </c>
+      <c r="K30" s="12">
+        <v>0</v>
+      </c>
+      <c r="L30" s="12">
+        <v>0</v>
+      </c>
+      <c r="M30" s="12">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>18</v>
+      </c>
+      <c r="O30" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="12">
+        <v>0</v>
+      </c>
+      <c r="C31" s="12">
+        <v>0</v>
+      </c>
+      <c r="D31" s="12">
+        <v>0</v>
+      </c>
+      <c r="E31" s="12">
+        <v>0</v>
+      </c>
+      <c r="F31" s="12">
+        <v>0</v>
+      </c>
+      <c r="G31" s="12">
+        <v>0</v>
+      </c>
+      <c r="H31" s="12">
+        <v>0</v>
+      </c>
+      <c r="I31" s="12">
+        <v>0</v>
+      </c>
+      <c r="J31" s="12">
+        <v>0</v>
+      </c>
+      <c r="K31" s="12">
+        <v>0</v>
+      </c>
+      <c r="L31" s="12">
+        <v>0</v>
+      </c>
+      <c r="M31" s="12">
+        <v>0</v>
+      </c>
+      <c r="N31" s="12">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="12">
+        <v>0</v>
+      </c>
+      <c r="C32" s="12">
+        <v>0</v>
+      </c>
+      <c r="D32" s="12">
+        <v>0</v>
+      </c>
+      <c r="E32" s="12">
+        <v>0</v>
+      </c>
+      <c r="F32" s="12">
+        <v>0</v>
+      </c>
+      <c r="G32" s="12">
+        <v>0</v>
+      </c>
+      <c r="H32" s="12">
+        <v>0</v>
+      </c>
+      <c r="I32" s="12">
+        <v>0</v>
+      </c>
+      <c r="J32" s="12">
+        <v>0</v>
+      </c>
+      <c r="K32" s="12">
+        <v>0</v>
+      </c>
+      <c r="L32" s="12">
+        <v>0</v>
+      </c>
+      <c r="M32" s="12">
+        <v>0</v>
+      </c>
+      <c r="N32" s="12">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="12">
+        <v>0</v>
+      </c>
+      <c r="C33" s="12">
+        <v>0</v>
+      </c>
+      <c r="D33" s="12">
+        <v>0</v>
+      </c>
+      <c r="E33" s="12">
+        <v>0</v>
+      </c>
+      <c r="F33" s="12">
+        <v>0</v>
+      </c>
+      <c r="G33" s="12">
+        <v>0</v>
+      </c>
+      <c r="H33" s="12">
+        <v>0</v>
+      </c>
+      <c r="I33" s="12">
+        <v>0</v>
+      </c>
+      <c r="J33" s="12">
+        <v>0</v>
+      </c>
+      <c r="K33" s="12">
+        <v>0</v>
+      </c>
+      <c r="L33" s="12">
+        <v>0</v>
+      </c>
+      <c r="M33" s="12">
+        <v>0</v>
+      </c>
+      <c r="N33" s="12">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="12">
+        <v>0</v>
+      </c>
+      <c r="C34" s="12">
+        <v>0</v>
+      </c>
+      <c r="D34" s="12">
+        <v>0</v>
+      </c>
+      <c r="E34" s="12">
+        <v>0</v>
+      </c>
+      <c r="F34" s="12">
+        <v>0</v>
+      </c>
+      <c r="G34" s="12">
+        <v>0</v>
+      </c>
+      <c r="H34" s="12">
+        <v>0</v>
+      </c>
+      <c r="I34" s="12">
+        <v>0</v>
+      </c>
+      <c r="J34" s="12">
+        <v>0</v>
+      </c>
+      <c r="K34" s="12">
+        <v>0</v>
+      </c>
+      <c r="L34" s="12">
+        <v>0</v>
+      </c>
+      <c r="M34" s="12">
+        <v>0</v>
+      </c>
+      <c r="N34" s="12">
+        <v>0</v>
+      </c>
+      <c r="O34" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="I10:M18">
+    <sortCondition ref="I10:I18"/>
+    <sortCondition ref="J10:J18"/>
+    <sortCondition ref="K10:K18"/>
+    <sortCondition ref="L10:L18"/>
+    <sortCondition ref="M10:M18"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Proj1.xlsx
+++ b/Proj1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="100" yWindow="460" windowWidth="26200" windowHeight="15780" tabRatio="500"/>
+    <workbookView xWindow="-20380" yWindow="460" windowWidth="17700" windowHeight="18860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="18">
   <si>
     <t>S1</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>S14</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -609,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1040,7 +1043,9 @@
         <v>51</v>
       </c>
       <c r="O10" s="12"/>
-      <c r="P10" s="13"/>
+      <c r="P10" s="13" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
@@ -1077,7 +1082,9 @@
         <v>52</v>
       </c>
       <c r="O11" s="12"/>
-      <c r="P11" s="13"/>
+      <c r="P11" s="13" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
@@ -1186,7 +1193,9 @@
         <v>50</v>
       </c>
       <c r="O14" s="12"/>
-      <c r="P14" s="13"/>
+      <c r="P14" s="13" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I15" s="11" t="s">
@@ -1207,7 +1216,9 @@
         <v>51</v>
       </c>
       <c r="O15" s="12"/>
-      <c r="P15" s="13"/>
+      <c r="P15" s="13" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I16" s="11" t="s">
@@ -1228,7 +1239,9 @@
         <v>60</v>
       </c>
       <c r="O16" s="12"/>
-      <c r="P16" s="13"/>
+      <c r="P16" s="13" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I17" s="11" t="s">
@@ -1251,7 +1264,9 @@
         <v>51</v>
       </c>
       <c r="O17" s="12"/>
-      <c r="P17" s="13"/>
+      <c r="P17" s="13" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I18" s="15" t="s">
@@ -1272,126 +1287,91 @@
         <v>52</v>
       </c>
       <c r="O18" s="17"/>
-      <c r="P18" s="18"/>
-    </row>
-    <row r="20" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+      <c r="P18" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+    </row>
+    <row r="21" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="O21" s="1" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="12">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3">
-        <v>2</v>
-      </c>
-      <c r="D21" s="3">
-        <v>2</v>
-      </c>
-      <c r="E21" s="3">
-        <v>2</v>
-      </c>
-      <c r="F21" s="3">
-        <v>2</v>
-      </c>
-      <c r="G21" s="3">
-        <v>2</v>
-      </c>
-      <c r="H21" s="12">
-        <v>0</v>
-      </c>
-      <c r="I21" s="12">
-        <v>0</v>
-      </c>
-      <c r="J21" s="12">
-        <v>0</v>
-      </c>
-      <c r="K21" s="12">
-        <v>0</v>
-      </c>
-      <c r="L21" s="12">
-        <v>0</v>
-      </c>
-      <c r="M21" s="12">
-        <v>0</v>
-      </c>
-      <c r="N21" s="12">
-        <v>0</v>
-      </c>
-      <c r="O21" s="12">
-        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" s="12">
         <v>0</v>
       </c>
-      <c r="C22" s="12">
-        <v>0</v>
-      </c>
-      <c r="D22" s="12">
-        <v>0</v>
-      </c>
-      <c r="E22" s="12">
-        <v>0</v>
-      </c>
-      <c r="F22" s="12">
-        <v>0</v>
-      </c>
-      <c r="G22" s="12">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4">
-        <v>10</v>
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0</v>
       </c>
       <c r="I22" s="12">
         <v>0</v>
@@ -1417,7 +1397,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" s="12">
         <v>0</v>
@@ -1438,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="H23" s="4">
-        <v>12</v>
-      </c>
-      <c r="I23" s="1">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="I23" s="12">
+        <v>0</v>
       </c>
       <c r="J23" s="12">
         <v>0</v>
@@ -1464,7 +1444,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" s="12">
         <v>0</v>
@@ -1484,14 +1464,14 @@
       <c r="G24" s="12">
         <v>0</v>
       </c>
-      <c r="H24" s="12">
-        <v>0</v>
+      <c r="H24" s="4">
+        <v>12</v>
       </c>
       <c r="I24" s="1">
-        <v>8</v>
-      </c>
-      <c r="J24" s="3">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="J24" s="12">
+        <v>0</v>
       </c>
       <c r="K24" s="12">
         <v>0</v>
@@ -1511,7 +1491,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" s="12">
         <v>0</v>
@@ -1534,14 +1514,14 @@
       <c r="H25" s="12">
         <v>0</v>
       </c>
-      <c r="I25" s="12">
-        <v>0</v>
+      <c r="I25" s="1">
+        <v>8</v>
       </c>
       <c r="J25" s="3">
-        <v>7</v>
-      </c>
-      <c r="K25" s="3">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="K25" s="12">
+        <v>0</v>
       </c>
       <c r="L25" s="12">
         <v>0</v>
@@ -1558,7 +1538,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" s="12">
         <v>0</v>
@@ -1584,11 +1564,11 @@
       <c r="I26" s="12">
         <v>0</v>
       </c>
-      <c r="J26" s="12">
-        <v>0</v>
+      <c r="J26" s="3">
+        <v>7</v>
       </c>
       <c r="K26" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L26" s="12">
         <v>0</v>
@@ -1605,7 +1585,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" s="12">
         <v>0</v>
@@ -1634,11 +1614,11 @@
       <c r="J27" s="12">
         <v>0</v>
       </c>
-      <c r="K27" s="12">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <v>3</v>
+      <c r="K27" s="3">
+        <v>2</v>
+      </c>
+      <c r="L27" s="12">
+        <v>0</v>
       </c>
       <c r="M27" s="12">
         <v>0</v>
@@ -1652,7 +1632,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B28" s="12">
         <v>0</v>
@@ -1685,10 +1665,10 @@
         <v>0</v>
       </c>
       <c r="L28" s="3">
-        <v>15</v>
-      </c>
-      <c r="M28" s="3">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="M28" s="12">
+        <v>0</v>
       </c>
       <c r="N28" s="12">
         <v>0</v>
@@ -1699,7 +1679,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29" s="12">
         <v>0</v>
@@ -1731,14 +1711,14 @@
       <c r="K29" s="12">
         <v>0</v>
       </c>
-      <c r="L29" s="12">
-        <v>0</v>
+      <c r="L29" s="3">
+        <v>15</v>
       </c>
       <c r="M29" s="3">
-        <v>20</v>
-      </c>
-      <c r="N29" s="3">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="N29" s="12">
+        <v>0</v>
       </c>
       <c r="O29" s="12">
         <v>0</v>
@@ -1746,7 +1726,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B30" s="12">
         <v>0</v>
@@ -1781,11 +1761,11 @@
       <c r="L30" s="12">
         <v>0</v>
       </c>
-      <c r="M30" s="12">
-        <v>0</v>
+      <c r="M30" s="3">
+        <v>20</v>
       </c>
       <c r="N30" s="3">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O30" s="12">
         <v>0</v>
@@ -1793,7 +1773,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31" s="12">
         <v>0</v>
@@ -1831,16 +1811,16 @@
       <c r="M31" s="12">
         <v>0</v>
       </c>
-      <c r="N31" s="12">
-        <v>0</v>
-      </c>
-      <c r="O31" s="3">
-        <v>5</v>
+      <c r="N31" s="3">
+        <v>18</v>
+      </c>
+      <c r="O31" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B32" s="12">
         <v>0</v>
@@ -1887,7 +1867,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33" s="12">
         <v>0</v>
@@ -1934,66 +1914,96 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="12">
+        <v>0</v>
+      </c>
+      <c r="C34" s="12">
+        <v>0</v>
+      </c>
+      <c r="D34" s="12">
+        <v>0</v>
+      </c>
+      <c r="E34" s="12">
+        <v>0</v>
+      </c>
+      <c r="F34" s="12">
+        <v>0</v>
+      </c>
+      <c r="G34" s="12">
+        <v>0</v>
+      </c>
+      <c r="H34" s="12">
+        <v>0</v>
+      </c>
+      <c r="I34" s="12">
+        <v>0</v>
+      </c>
+      <c r="J34" s="12">
+        <v>0</v>
+      </c>
+      <c r="K34" s="12">
+        <v>0</v>
+      </c>
+      <c r="L34" s="12">
+        <v>0</v>
+      </c>
+      <c r="M34" s="12">
+        <v>0</v>
+      </c>
+      <c r="N34" s="12">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="12">
-        <v>0</v>
-      </c>
-      <c r="C34" s="12">
-        <v>0</v>
-      </c>
-      <c r="D34" s="12">
-        <v>0</v>
-      </c>
-      <c r="E34" s="12">
-        <v>0</v>
-      </c>
-      <c r="F34" s="12">
-        <v>0</v>
-      </c>
-      <c r="G34" s="12">
-        <v>0</v>
-      </c>
-      <c r="H34" s="12">
-        <v>0</v>
-      </c>
-      <c r="I34" s="12">
-        <v>0</v>
-      </c>
-      <c r="J34" s="12">
-        <v>0</v>
-      </c>
-      <c r="K34" s="12">
-        <v>0</v>
-      </c>
-      <c r="L34" s="12">
-        <v>0</v>
-      </c>
-      <c r="M34" s="12">
-        <v>0</v>
-      </c>
-      <c r="N34" s="12">
-        <v>0</v>
-      </c>
-      <c r="O34" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>16</v>
+      <c r="B35" s="12">
+        <v>0</v>
+      </c>
+      <c r="C35" s="12">
+        <v>0</v>
+      </c>
+      <c r="D35" s="12">
+        <v>0</v>
+      </c>
+      <c r="E35" s="12">
+        <v>0</v>
+      </c>
+      <c r="F35" s="12">
+        <v>0</v>
+      </c>
+      <c r="G35" s="12">
+        <v>0</v>
+      </c>
+      <c r="H35" s="12">
+        <v>0</v>
+      </c>
+      <c r="I35" s="12">
+        <v>0</v>
+      </c>
+      <c r="J35" s="12">
+        <v>0</v>
+      </c>
+      <c r="K35" s="12">
+        <v>0</v>
+      </c>
+      <c r="L35" s="12">
+        <v>0</v>
+      </c>
+      <c r="M35" s="12">
+        <v>0</v>
+      </c>
+      <c r="N35" s="12">
+        <v>0</v>
+      </c>
+      <c r="O35" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
@@ -2001,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>6</v>
@@ -2021,7 +2031,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>13</v>
@@ -2041,7 +2051,7 @@
         <v>10</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>16</v>
@@ -2052,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>16</v>
@@ -2075,7 +2085,7 @@
         <v>10</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>16</v>
@@ -2089,7 +2099,7 @@
         <v>3</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>14</v>
@@ -2109,7 +2119,7 @@
         <v>11</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>16</v>
@@ -2120,13 +2130,13 @@
         <v>0</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>16</v>
@@ -2143,7 +2153,7 @@
         <v>11</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>16</v>
@@ -2157,7 +2167,7 @@
         <v>4</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>15</v>
@@ -2171,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>12</v>
@@ -2180,6 +2190,23 @@
         <v>15</v>
       </c>
       <c r="E47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Proj1.xlsx
+++ b/Proj1.xlsx
@@ -1,24 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanch/Dropbox/f2017/cis677/Proj1/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20380" yWindow="460" windowWidth="17700" windowHeight="18860" tabRatio="500"/>
+    <workbookView xWindow="-20385" yWindow="465" windowWidth="17700" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="24">
   <si>
     <t>S1</t>
   </si>
@@ -82,12 +74,30 @@
   <si>
     <t>x</t>
   </si>
+  <si>
+    <t>S15</t>
+  </si>
+  <si>
+    <t>S16</t>
+  </si>
+  <si>
+    <t>S17</t>
+  </si>
+  <si>
+    <t>S18</t>
+  </si>
+  <si>
+    <t>S19</t>
+  </si>
+  <si>
+    <t>S20</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -107,6 +117,13 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -274,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -335,6 +352,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,7 +412,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -427,7 +447,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -604,7 +624,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -612,24 +632,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:U71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" style="1" customWidth="1"/>
-    <col min="2" max="7" width="5.83203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="5.83203125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="5.83203125" style="1" customWidth="1"/>
-    <col min="10" max="16" width="5.83203125" style="3" customWidth="1"/>
-    <col min="17" max="26" width="5.83203125" style="4" customWidth="1"/>
-    <col min="27" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="5.875" style="1" customWidth="1"/>
+    <col min="2" max="7" width="5.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="5.875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="5.875" style="1" customWidth="1"/>
+    <col min="10" max="16" width="5.875" style="3" customWidth="1"/>
+    <col min="17" max="26" width="5.875" style="4" customWidth="1"/>
+    <col min="27" max="16384" width="10.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
@@ -676,7 +696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -723,7 +743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
@@ -770,7 +790,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
@@ -817,7 +837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
@@ -864,7 +884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
@@ -911,7 +931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
@@ -958,7 +978,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -991,7 +1011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -1008,7 +1028,7 @@
       <c r="O9" s="12"/>
       <c r="P9" s="13"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>0</v>
       </c>
@@ -1047,7 +1067,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>0</v>
       </c>
@@ -1086,7 +1106,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>0</v>
       </c>
@@ -1129,7 +1149,7 @@
       <c r="O12" s="12"/>
       <c r="P12" s="13"/>
     </row>
-    <row r="13" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>0</v>
       </c>
@@ -1172,7 +1192,7 @@
       <c r="O13" s="12"/>
       <c r="P13" s="13"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I14" s="19" t="s">
         <v>0</v>
       </c>
@@ -1197,7 +1217,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I15" s="11" t="s">
         <v>0</v>
       </c>
@@ -1220,7 +1240,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I16" s="11" t="s">
         <v>0</v>
       </c>
@@ -1243,7 +1263,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I17" s="11" t="s">
         <v>0</v>
       </c>
@@ -1268,7 +1288,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I18" s="15" t="s">
         <v>0</v>
       </c>
@@ -1291,7 +1311,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
@@ -1301,7 +1321,7 @@
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
     </row>
-    <row r="21" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>9</v>
       </c>
@@ -1348,7 +1368,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1395,7 +1415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -1442,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
@@ -1489,7 +1509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
@@ -1536,7 +1556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
@@ -1583,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
@@ -1630,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -1677,7 +1697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -1724,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
@@ -1771,7 +1791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -1818,7 +1838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
@@ -1865,7 +1885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -1912,7 +1932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>15</v>
       </c>
@@ -1959,7 +1979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
@@ -2006,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -2023,7 +2043,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -2040,7 +2060,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -2057,7 +2077,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -2074,7 +2094,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -2091,7 +2111,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -2108,7 +2128,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -2125,7 +2145,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -2142,7 +2162,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -2159,7 +2179,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -2176,7 +2196,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -2193,7 +2213,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -2208,6 +2228,1371 @@
       </c>
       <c r="E48" s="3" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O51" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="P51" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q51" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="R51" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="S51" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="T51" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="U51" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="12">
+        <v>0</v>
+      </c>
+      <c r="C52" s="3">
+        <v>3</v>
+      </c>
+      <c r="D52" s="3">
+        <v>2</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="12">
+        <v>5</v>
+      </c>
+      <c r="I52" s="12">
+        <v>0</v>
+      </c>
+      <c r="J52" s="12">
+        <v>0</v>
+      </c>
+      <c r="K52" s="12">
+        <v>0</v>
+      </c>
+      <c r="L52" s="12">
+        <v>0</v>
+      </c>
+      <c r="M52" s="12">
+        <v>0</v>
+      </c>
+      <c r="N52" s="12">
+        <v>0</v>
+      </c>
+      <c r="O52" s="12">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="12">
+        <v>0</v>
+      </c>
+      <c r="C53" s="12">
+        <v>0</v>
+      </c>
+      <c r="D53" s="12">
+        <v>0</v>
+      </c>
+      <c r="E53" s="12">
+        <v>0</v>
+      </c>
+      <c r="F53" s="12">
+        <v>2</v>
+      </c>
+      <c r="G53" s="12">
+        <v>7</v>
+      </c>
+      <c r="H53" s="12">
+        <v>0</v>
+      </c>
+      <c r="I53" s="12">
+        <v>0</v>
+      </c>
+      <c r="J53" s="12">
+        <v>0</v>
+      </c>
+      <c r="K53" s="12">
+        <v>0</v>
+      </c>
+      <c r="L53" s="12">
+        <v>0</v>
+      </c>
+      <c r="M53" s="12">
+        <v>0</v>
+      </c>
+      <c r="N53" s="12">
+        <v>0</v>
+      </c>
+      <c r="O53" s="12">
+        <v>0</v>
+      </c>
+      <c r="P53" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="12">
+        <v>0</v>
+      </c>
+      <c r="R53" s="12">
+        <v>0</v>
+      </c>
+      <c r="S53" s="12">
+        <v>0</v>
+      </c>
+      <c r="T53" s="12">
+        <v>0</v>
+      </c>
+      <c r="U53" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="12">
+        <v>0</v>
+      </c>
+      <c r="C54" s="12">
+        <v>0</v>
+      </c>
+      <c r="D54" s="12">
+        <v>0</v>
+      </c>
+      <c r="E54" s="12">
+        <v>0</v>
+      </c>
+      <c r="F54" s="12">
+        <v>0</v>
+      </c>
+      <c r="G54" s="12">
+        <v>6</v>
+      </c>
+      <c r="H54" s="12">
+        <v>0</v>
+      </c>
+      <c r="I54" s="12">
+        <v>0</v>
+      </c>
+      <c r="J54" s="12">
+        <v>0</v>
+      </c>
+      <c r="K54" s="12">
+        <v>0</v>
+      </c>
+      <c r="L54" s="12">
+        <v>0</v>
+      </c>
+      <c r="M54" s="12">
+        <v>0</v>
+      </c>
+      <c r="N54" s="12">
+        <v>0</v>
+      </c>
+      <c r="O54" s="12">
+        <v>0</v>
+      </c>
+      <c r="P54" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="12">
+        <v>0</v>
+      </c>
+      <c r="R54" s="12">
+        <v>0</v>
+      </c>
+      <c r="S54" s="12">
+        <v>0</v>
+      </c>
+      <c r="T54" s="12">
+        <v>0</v>
+      </c>
+      <c r="U54" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="12">
+        <v>0</v>
+      </c>
+      <c r="C55" s="12">
+        <v>0</v>
+      </c>
+      <c r="D55" s="12">
+        <v>0</v>
+      </c>
+      <c r="E55" s="12">
+        <v>0</v>
+      </c>
+      <c r="F55" s="12">
+        <v>0</v>
+      </c>
+      <c r="G55" s="12">
+        <v>1</v>
+      </c>
+      <c r="H55" s="12">
+        <v>0</v>
+      </c>
+      <c r="I55" s="12">
+        <v>0</v>
+      </c>
+      <c r="J55" s="12">
+        <v>0</v>
+      </c>
+      <c r="K55" s="12">
+        <v>0</v>
+      </c>
+      <c r="L55" s="12">
+        <v>0</v>
+      </c>
+      <c r="M55" s="12">
+        <v>0</v>
+      </c>
+      <c r="N55" s="12">
+        <v>0</v>
+      </c>
+      <c r="O55" s="12">
+        <v>0</v>
+      </c>
+      <c r="P55" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="12">
+        <v>0</v>
+      </c>
+      <c r="R55" s="12">
+        <v>0</v>
+      </c>
+      <c r="S55" s="12">
+        <v>0</v>
+      </c>
+      <c r="T55" s="12">
+        <v>0</v>
+      </c>
+      <c r="U55" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="12">
+        <v>0</v>
+      </c>
+      <c r="C56" s="12">
+        <v>0</v>
+      </c>
+      <c r="D56" s="12">
+        <v>0</v>
+      </c>
+      <c r="E56" s="12">
+        <v>0</v>
+      </c>
+      <c r="F56" s="12">
+        <v>0</v>
+      </c>
+      <c r="G56" s="12">
+        <v>0</v>
+      </c>
+      <c r="H56" s="12">
+        <v>0</v>
+      </c>
+      <c r="I56" s="12">
+        <v>2</v>
+      </c>
+      <c r="J56" s="12">
+        <v>0</v>
+      </c>
+      <c r="K56" s="12">
+        <v>0</v>
+      </c>
+      <c r="L56" s="12">
+        <v>3</v>
+      </c>
+      <c r="M56" s="12">
+        <v>0</v>
+      </c>
+      <c r="N56" s="12">
+        <v>0</v>
+      </c>
+      <c r="O56" s="12">
+        <v>0</v>
+      </c>
+      <c r="P56" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="12">
+        <v>0</v>
+      </c>
+      <c r="R56" s="12">
+        <v>0</v>
+      </c>
+      <c r="S56" s="12">
+        <v>0</v>
+      </c>
+      <c r="T56" s="12">
+        <v>0</v>
+      </c>
+      <c r="U56" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="12">
+        <v>0</v>
+      </c>
+      <c r="C57" s="12">
+        <v>0</v>
+      </c>
+      <c r="D57" s="12">
+        <v>0</v>
+      </c>
+      <c r="E57" s="12">
+        <v>0</v>
+      </c>
+      <c r="F57" s="12">
+        <v>0</v>
+      </c>
+      <c r="G57" s="12">
+        <v>0</v>
+      </c>
+      <c r="H57" s="12">
+        <v>3</v>
+      </c>
+      <c r="I57" s="12">
+        <v>2</v>
+      </c>
+      <c r="J57" s="12">
+        <v>2</v>
+      </c>
+      <c r="K57" s="12">
+        <v>0</v>
+      </c>
+      <c r="L57" s="12">
+        <v>0</v>
+      </c>
+      <c r="M57" s="12">
+        <v>5</v>
+      </c>
+      <c r="N57" s="12">
+        <v>0</v>
+      </c>
+      <c r="O57" s="12">
+        <v>0</v>
+      </c>
+      <c r="P57" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="12">
+        <v>0</v>
+      </c>
+      <c r="R57" s="12">
+        <v>0</v>
+      </c>
+      <c r="S57" s="12">
+        <v>0</v>
+      </c>
+      <c r="T57" s="12">
+        <v>0</v>
+      </c>
+      <c r="U57" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="12">
+        <v>0</v>
+      </c>
+      <c r="C58" s="12">
+        <v>0</v>
+      </c>
+      <c r="D58" s="12">
+        <v>0</v>
+      </c>
+      <c r="E58" s="12">
+        <v>0</v>
+      </c>
+      <c r="F58" s="12">
+        <v>0</v>
+      </c>
+      <c r="G58" s="12">
+        <v>0</v>
+      </c>
+      <c r="H58" s="12">
+        <v>0</v>
+      </c>
+      <c r="I58" s="12">
+        <v>0</v>
+      </c>
+      <c r="J58" s="12">
+        <v>0</v>
+      </c>
+      <c r="K58" s="12">
+        <v>1</v>
+      </c>
+      <c r="L58" s="12">
+        <v>0</v>
+      </c>
+      <c r="M58" s="12">
+        <v>0</v>
+      </c>
+      <c r="N58" s="12">
+        <v>0</v>
+      </c>
+      <c r="O58" s="12">
+        <v>0</v>
+      </c>
+      <c r="P58" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="12">
+        <v>0</v>
+      </c>
+      <c r="R58" s="12">
+        <v>0</v>
+      </c>
+      <c r="S58" s="12">
+        <v>0</v>
+      </c>
+      <c r="T58" s="12">
+        <v>0</v>
+      </c>
+      <c r="U58" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="12">
+        <v>0</v>
+      </c>
+      <c r="C59" s="12">
+        <v>0</v>
+      </c>
+      <c r="D59" s="12">
+        <v>0</v>
+      </c>
+      <c r="E59" s="12">
+        <v>0</v>
+      </c>
+      <c r="F59" s="12">
+        <v>0</v>
+      </c>
+      <c r="G59" s="12">
+        <v>0</v>
+      </c>
+      <c r="H59" s="12">
+        <v>0</v>
+      </c>
+      <c r="I59" s="12">
+        <v>0</v>
+      </c>
+      <c r="J59" s="12">
+        <v>0</v>
+      </c>
+      <c r="K59" s="12">
+        <v>0</v>
+      </c>
+      <c r="L59" s="12">
+        <v>1</v>
+      </c>
+      <c r="M59" s="12">
+        <v>2</v>
+      </c>
+      <c r="N59" s="12">
+        <v>0</v>
+      </c>
+      <c r="O59" s="12">
+        <v>0</v>
+      </c>
+      <c r="P59" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="12">
+        <v>0</v>
+      </c>
+      <c r="R59" s="12">
+        <v>0</v>
+      </c>
+      <c r="S59" s="12">
+        <v>0</v>
+      </c>
+      <c r="T59" s="12">
+        <v>0</v>
+      </c>
+      <c r="U59" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="12">
+        <v>0</v>
+      </c>
+      <c r="C60" s="12">
+        <v>0</v>
+      </c>
+      <c r="D60" s="12">
+        <v>0</v>
+      </c>
+      <c r="E60" s="12">
+        <v>0</v>
+      </c>
+      <c r="F60" s="12">
+        <v>0</v>
+      </c>
+      <c r="G60" s="12">
+        <v>0</v>
+      </c>
+      <c r="H60" s="12">
+        <v>0</v>
+      </c>
+      <c r="I60" s="12">
+        <v>0</v>
+      </c>
+      <c r="J60" s="12">
+        <v>0</v>
+      </c>
+      <c r="K60" s="12">
+        <v>0</v>
+      </c>
+      <c r="L60" s="12">
+        <v>0</v>
+      </c>
+      <c r="M60" s="12">
+        <v>0</v>
+      </c>
+      <c r="N60" s="12">
+        <v>3</v>
+      </c>
+      <c r="O60" s="12">
+        <v>0</v>
+      </c>
+      <c r="P60" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="12">
+        <v>0</v>
+      </c>
+      <c r="R60" s="12">
+        <v>0</v>
+      </c>
+      <c r="S60" s="12">
+        <v>0</v>
+      </c>
+      <c r="T60" s="12">
+        <v>0</v>
+      </c>
+      <c r="U60" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="12">
+        <v>0</v>
+      </c>
+      <c r="C61" s="12">
+        <v>0</v>
+      </c>
+      <c r="D61" s="12">
+        <v>0</v>
+      </c>
+      <c r="E61" s="12">
+        <v>0</v>
+      </c>
+      <c r="F61" s="12">
+        <v>0</v>
+      </c>
+      <c r="G61" s="12">
+        <v>0</v>
+      </c>
+      <c r="H61" s="12">
+        <v>0</v>
+      </c>
+      <c r="I61" s="12">
+        <v>0</v>
+      </c>
+      <c r="J61" s="12">
+        <v>0</v>
+      </c>
+      <c r="K61" s="12">
+        <v>0</v>
+      </c>
+      <c r="L61" s="12">
+        <v>0</v>
+      </c>
+      <c r="M61" s="12">
+        <v>0</v>
+      </c>
+      <c r="N61" s="12">
+        <v>0</v>
+      </c>
+      <c r="O61" s="12">
+        <v>0</v>
+      </c>
+      <c r="P61" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="12">
+        <v>3</v>
+      </c>
+      <c r="R61" s="12">
+        <v>0</v>
+      </c>
+      <c r="S61" s="12">
+        <v>0</v>
+      </c>
+      <c r="T61" s="12">
+        <v>8</v>
+      </c>
+      <c r="U61" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="12">
+        <v>0</v>
+      </c>
+      <c r="C62" s="12">
+        <v>0</v>
+      </c>
+      <c r="D62" s="12">
+        <v>0</v>
+      </c>
+      <c r="E62" s="12">
+        <v>0</v>
+      </c>
+      <c r="F62" s="12">
+        <v>0</v>
+      </c>
+      <c r="G62" s="12">
+        <v>0</v>
+      </c>
+      <c r="H62" s="12">
+        <v>0</v>
+      </c>
+      <c r="I62" s="12">
+        <v>0</v>
+      </c>
+      <c r="J62" s="12">
+        <v>0</v>
+      </c>
+      <c r="K62" s="12">
+        <v>0</v>
+      </c>
+      <c r="L62" s="12">
+        <v>0</v>
+      </c>
+      <c r="M62" s="12">
+        <v>0</v>
+      </c>
+      <c r="N62" s="12">
+        <v>0</v>
+      </c>
+      <c r="O62" s="12">
+        <v>0</v>
+      </c>
+      <c r="P62" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="12">
+        <v>0</v>
+      </c>
+      <c r="R62" s="12">
+        <v>6</v>
+      </c>
+      <c r="S62" s="12">
+        <v>0</v>
+      </c>
+      <c r="T62" s="12">
+        <v>0</v>
+      </c>
+      <c r="U62" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="12">
+        <v>0</v>
+      </c>
+      <c r="C63" s="12">
+        <v>0</v>
+      </c>
+      <c r="D63" s="12">
+        <v>0</v>
+      </c>
+      <c r="E63" s="12">
+        <v>0</v>
+      </c>
+      <c r="F63" s="12">
+        <v>0</v>
+      </c>
+      <c r="G63" s="12">
+        <v>0</v>
+      </c>
+      <c r="H63" s="12">
+        <v>0</v>
+      </c>
+      <c r="I63" s="12">
+        <v>0</v>
+      </c>
+      <c r="J63" s="12">
+        <v>0</v>
+      </c>
+      <c r="K63" s="12">
+        <v>0</v>
+      </c>
+      <c r="L63" s="12">
+        <v>0</v>
+      </c>
+      <c r="M63" s="12">
+        <v>0</v>
+      </c>
+      <c r="N63" s="12">
+        <v>0</v>
+      </c>
+      <c r="O63" s="12">
+        <v>2</v>
+      </c>
+      <c r="P63" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="12">
+        <v>0</v>
+      </c>
+      <c r="R63" s="12">
+        <v>0</v>
+      </c>
+      <c r="S63" s="12">
+        <v>0</v>
+      </c>
+      <c r="T63" s="12">
+        <v>0</v>
+      </c>
+      <c r="U63" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="12">
+        <v>0</v>
+      </c>
+      <c r="C64" s="12">
+        <v>0</v>
+      </c>
+      <c r="D64" s="12">
+        <v>0</v>
+      </c>
+      <c r="E64" s="12">
+        <v>0</v>
+      </c>
+      <c r="F64" s="12">
+        <v>0</v>
+      </c>
+      <c r="G64" s="12">
+        <v>0</v>
+      </c>
+      <c r="H64" s="12">
+        <v>0</v>
+      </c>
+      <c r="I64" s="12">
+        <v>0</v>
+      </c>
+      <c r="J64" s="12">
+        <v>0</v>
+      </c>
+      <c r="K64" s="12">
+        <v>0</v>
+      </c>
+      <c r="L64" s="12">
+        <v>0</v>
+      </c>
+      <c r="M64" s="12">
+        <v>0</v>
+      </c>
+      <c r="N64" s="12">
+        <v>0</v>
+      </c>
+      <c r="O64" s="12">
+        <v>0</v>
+      </c>
+      <c r="P64" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="12">
+        <v>2</v>
+      </c>
+      <c r="R64" s="12">
+        <v>0</v>
+      </c>
+      <c r="S64" s="12">
+        <v>0</v>
+      </c>
+      <c r="T64" s="12">
+        <v>0</v>
+      </c>
+      <c r="U64" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" s="12">
+        <v>0</v>
+      </c>
+      <c r="C65" s="12">
+        <v>0</v>
+      </c>
+      <c r="D65" s="12">
+        <v>0</v>
+      </c>
+      <c r="E65" s="12">
+        <v>0</v>
+      </c>
+      <c r="F65" s="12">
+        <v>0</v>
+      </c>
+      <c r="G65" s="12">
+        <v>0</v>
+      </c>
+      <c r="H65" s="12">
+        <v>0</v>
+      </c>
+      <c r="I65" s="12">
+        <v>0</v>
+      </c>
+      <c r="J65" s="12">
+        <v>0</v>
+      </c>
+      <c r="K65" s="12">
+        <v>0</v>
+      </c>
+      <c r="L65" s="12">
+        <v>0</v>
+      </c>
+      <c r="M65" s="12">
+        <v>0</v>
+      </c>
+      <c r="N65" s="12">
+        <v>0</v>
+      </c>
+      <c r="O65" s="12">
+        <v>0</v>
+      </c>
+      <c r="P65" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="12">
+        <v>0</v>
+      </c>
+      <c r="R65" s="12">
+        <v>0</v>
+      </c>
+      <c r="S65" s="12">
+        <v>0</v>
+      </c>
+      <c r="T65" s="12">
+        <v>0</v>
+      </c>
+      <c r="U65" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" s="12">
+        <v>0</v>
+      </c>
+      <c r="C66" s="12">
+        <v>0</v>
+      </c>
+      <c r="D66" s="12">
+        <v>0</v>
+      </c>
+      <c r="E66" s="12">
+        <v>0</v>
+      </c>
+      <c r="F66" s="12">
+        <v>0</v>
+      </c>
+      <c r="G66" s="12">
+        <v>0</v>
+      </c>
+      <c r="H66" s="12">
+        <v>0</v>
+      </c>
+      <c r="I66" s="12">
+        <v>0</v>
+      </c>
+      <c r="J66" s="12">
+        <v>0</v>
+      </c>
+      <c r="K66" s="12">
+        <v>0</v>
+      </c>
+      <c r="L66" s="12">
+        <v>0</v>
+      </c>
+      <c r="M66" s="12">
+        <v>0</v>
+      </c>
+      <c r="N66" s="12">
+        <v>0</v>
+      </c>
+      <c r="O66" s="12">
+        <v>0</v>
+      </c>
+      <c r="P66" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="12">
+        <v>0</v>
+      </c>
+      <c r="R66" s="12">
+        <v>4</v>
+      </c>
+      <c r="S66" s="12">
+        <v>2</v>
+      </c>
+      <c r="T66" s="12">
+        <v>0</v>
+      </c>
+      <c r="U66" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="12">
+        <v>0</v>
+      </c>
+      <c r="C67" s="12">
+        <v>0</v>
+      </c>
+      <c r="D67" s="12">
+        <v>0</v>
+      </c>
+      <c r="E67" s="12">
+        <v>0</v>
+      </c>
+      <c r="F67" s="12">
+        <v>0</v>
+      </c>
+      <c r="G67" s="12">
+        <v>0</v>
+      </c>
+      <c r="H67" s="12">
+        <v>0</v>
+      </c>
+      <c r="I67" s="12">
+        <v>0</v>
+      </c>
+      <c r="J67" s="12">
+        <v>0</v>
+      </c>
+      <c r="K67" s="12">
+        <v>0</v>
+      </c>
+      <c r="L67" s="12">
+        <v>0</v>
+      </c>
+      <c r="M67" s="12">
+        <v>0</v>
+      </c>
+      <c r="N67" s="12">
+        <v>0</v>
+      </c>
+      <c r="O67" s="12">
+        <v>0</v>
+      </c>
+      <c r="P67" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="12">
+        <v>0</v>
+      </c>
+      <c r="R67" s="12">
+        <v>0</v>
+      </c>
+      <c r="S67" s="12">
+        <v>0</v>
+      </c>
+      <c r="T67" s="12">
+        <v>3</v>
+      </c>
+      <c r="U67" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="12">
+        <v>0</v>
+      </c>
+      <c r="C68" s="12">
+        <v>0</v>
+      </c>
+      <c r="D68" s="12">
+        <v>0</v>
+      </c>
+      <c r="E68" s="12">
+        <v>0</v>
+      </c>
+      <c r="F68" s="12">
+        <v>0</v>
+      </c>
+      <c r="G68" s="12">
+        <v>0</v>
+      </c>
+      <c r="H68" s="12">
+        <v>0</v>
+      </c>
+      <c r="I68" s="12">
+        <v>0</v>
+      </c>
+      <c r="J68" s="12">
+        <v>0</v>
+      </c>
+      <c r="K68" s="12">
+        <v>0</v>
+      </c>
+      <c r="L68" s="12">
+        <v>0</v>
+      </c>
+      <c r="M68" s="12">
+        <v>0</v>
+      </c>
+      <c r="N68" s="12">
+        <v>0</v>
+      </c>
+      <c r="O68" s="12">
+        <v>0</v>
+      </c>
+      <c r="P68" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="12">
+        <v>0</v>
+      </c>
+      <c r="R68" s="12">
+        <v>0</v>
+      </c>
+      <c r="S68" s="12">
+        <v>0</v>
+      </c>
+      <c r="T68" s="12">
+        <v>0</v>
+      </c>
+      <c r="U68" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69" s="12">
+        <v>0</v>
+      </c>
+      <c r="C69" s="12">
+        <v>0</v>
+      </c>
+      <c r="D69" s="12">
+        <v>0</v>
+      </c>
+      <c r="E69" s="12">
+        <v>0</v>
+      </c>
+      <c r="F69" s="12">
+        <v>0</v>
+      </c>
+      <c r="G69" s="12">
+        <v>0</v>
+      </c>
+      <c r="H69" s="12">
+        <v>0</v>
+      </c>
+      <c r="I69" s="12">
+        <v>0</v>
+      </c>
+      <c r="J69" s="12">
+        <v>0</v>
+      </c>
+      <c r="K69" s="12">
+        <v>0</v>
+      </c>
+      <c r="L69" s="12">
+        <v>0</v>
+      </c>
+      <c r="M69" s="12">
+        <v>0</v>
+      </c>
+      <c r="N69" s="12">
+        <v>0</v>
+      </c>
+      <c r="O69" s="12">
+        <v>0</v>
+      </c>
+      <c r="P69" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="12">
+        <v>0</v>
+      </c>
+      <c r="R69" s="12">
+        <v>0</v>
+      </c>
+      <c r="S69" s="12">
+        <v>0</v>
+      </c>
+      <c r="T69" s="12">
+        <v>0</v>
+      </c>
+      <c r="U69" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" s="12">
+        <v>0</v>
+      </c>
+      <c r="C70" s="12">
+        <v>0</v>
+      </c>
+      <c r="D70" s="12">
+        <v>0</v>
+      </c>
+      <c r="E70" s="12">
+        <v>0</v>
+      </c>
+      <c r="F70" s="12">
+        <v>0</v>
+      </c>
+      <c r="G70" s="12">
+        <v>0</v>
+      </c>
+      <c r="H70" s="12">
+        <v>0</v>
+      </c>
+      <c r="I70" s="12">
+        <v>0</v>
+      </c>
+      <c r="J70" s="12">
+        <v>0</v>
+      </c>
+      <c r="K70" s="12">
+        <v>0</v>
+      </c>
+      <c r="L70" s="12">
+        <v>0</v>
+      </c>
+      <c r="M70" s="12">
+        <v>0</v>
+      </c>
+      <c r="N70" s="12">
+        <v>0</v>
+      </c>
+      <c r="O70" s="12">
+        <v>0</v>
+      </c>
+      <c r="P70" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="12">
+        <v>0</v>
+      </c>
+      <c r="R70" s="12">
+        <v>0</v>
+      </c>
+      <c r="S70" s="12">
+        <v>0</v>
+      </c>
+      <c r="T70" s="12">
+        <v>0</v>
+      </c>
+      <c r="U70" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" s="12">
+        <v>0</v>
+      </c>
+      <c r="C71" s="12">
+        <v>0</v>
+      </c>
+      <c r="D71" s="12">
+        <v>0</v>
+      </c>
+      <c r="E71" s="12">
+        <v>0</v>
+      </c>
+      <c r="F71" s="12">
+        <v>0</v>
+      </c>
+      <c r="G71" s="12">
+        <v>0</v>
+      </c>
+      <c r="H71" s="12">
+        <v>0</v>
+      </c>
+      <c r="I71" s="12">
+        <v>0</v>
+      </c>
+      <c r="J71" s="12">
+        <v>0</v>
+      </c>
+      <c r="K71" s="12">
+        <v>0</v>
+      </c>
+      <c r="L71" s="12">
+        <v>0</v>
+      </c>
+      <c r="M71" s="12">
+        <v>0</v>
+      </c>
+      <c r="N71" s="12">
+        <v>0</v>
+      </c>
+      <c r="O71" s="12">
+        <v>0</v>
+      </c>
+      <c r="P71" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="12">
+        <v>0</v>
+      </c>
+      <c r="R71" s="12">
+        <v>0</v>
+      </c>
+      <c r="S71" s="12">
+        <v>0</v>
+      </c>
+      <c r="T71" s="12">
+        <v>0</v>
+      </c>
+      <c r="U71" s="12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2219,5 +3604,6 @@
     <sortCondition ref="M10:M18"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>